--- a/board_layout.xlsx
+++ b/board_layout.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\adit\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20070" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="30">
   <si>
     <t>W</t>
   </si>
@@ -103,12 +99,24 @@
   <si>
     <t>RU</t>
   </si>
+  <si>
+    <t>orange = test target</t>
+  </si>
+  <si>
+    <t>green adjacentcy list beside room entrance</t>
+  </si>
+  <si>
+    <t>Purple: adjacency list test, inside room</t>
+  </si>
+  <si>
+    <t>White: adjacency list tests, room exit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +124,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +162,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -161,17 +205,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="234">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -183,72 +293,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -331,6 +378,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -357,6 +434,36 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -395,6 +502,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -407,6 +544,1809 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -790,16 +2730,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -814,7 +2754,7 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -965,7 +2905,7 @@
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1051,7 +2991,7 @@
       <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -1072,10 +3012,10 @@
       <c r="Q4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="s">
+      <c r="R4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="T4" s="2" t="s">
@@ -1273,7 +3213,7 @@
       <c r="J7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -1776,7 +3716,7 @@
       <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1835,7 +3775,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1898,7 +3838,7 @@
       <c r="U15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="V15" s="9" t="s">
         <v>20</v>
       </c>
       <c r="W15" s="2" t="s">
@@ -1933,13 +3873,13 @@
       <c r="H16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="9" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -1948,7 +3888,7 @@
       <c r="M16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="O16" s="2" t="s">
@@ -1972,7 +3912,7 @@
       <c r="U16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="V16" s="2" t="s">
+      <c r="V16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="W16" s="2" t="s">
@@ -1989,7 +3929,7 @@
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1998,7 +3938,7 @@
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -2022,7 +3962,7 @@
       <c r="M17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="O17" s="2" t="s">
@@ -2084,7 +4024,7 @@
       <c r="I18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -2205,7 +4145,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2271,7 +4211,7 @@
       <c r="V20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="W20" s="2" t="s">
+      <c r="W20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="X20" s="3">
@@ -2350,51 +4290,71 @@
       </c>
       <c r="X21" s="3"/>
     </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="13" operator="equal">
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD9 A15:XFD1048576 A10:I14 O10:XFD14 J10:N13">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+  <conditionalFormatting sqref="A2:XFD2 B15:XFD15 O10:XFD14 A10:N13 A19:XFD19 A18:I18 K18:XFD18 A17:B17 A16:H16 L16:M16 A21:XFD1048576 B20:V20 A5:XFD6 A3:F3 H3:XFD3 B1:E1 A4:J4 L4:Q4 A14:E14 G14:I14 G17:XFD17 A8:XFD9 A7:J7 L7:XFD7 X20:XFD20 J16 D17:E17 W16:XFD16 S4:XFD4 O16:U16 G1:XFD1">
+    <cfRule type="cellIs" dxfId="232" priority="8" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="9" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="10" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="11" operator="equal">
       <formula>"K"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="12" operator="equal">
       <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+  <conditionalFormatting sqref="A2:XFD2 A19:XFD19 A18:I18 K18:XFD18 A17:B17 A16:H16 L16:M16 B15:XFD15 A21:XFD1048576 B20:V20 A5:XFD6 A3:F3 H3:XFD3 B1:E1 A4:J4 L4:Q4 A14:E14 G14:XFD14 G17:XFD17 A8:XFD13 A7:J7 L7:XFD7 X20:XFD20 J16 D17:E17 W16:XFD16 S4:XFD4 O16:U16 G1:XFD1">
+    <cfRule type="cellIs" dxfId="227" priority="7" operator="equal">
       <formula>"X"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="6" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="4" operator="equal">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="2" operator="equal">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:W20">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+  <conditionalFormatting sqref="R17:W19 R20:V20">
+    <cfRule type="cellIs" dxfId="221" priority="5" operator="equal">
       <formula>"H"</formula>
     </cfRule>
   </conditionalFormatting>
